--- a/DIA03S.xlsx
+++ b/DIA03S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="159">
   <si>
     <t/>
   </si>
@@ -97,108 +97,108 @@
     <t>MAMY/P DIAPERS S-24S</t>
   </si>
   <si>
+    <t>20021393</t>
+  </si>
+  <si>
+    <t>MAMY/P PANT STD XL20</t>
+  </si>
+  <si>
+    <t>20021392</t>
+  </si>
+  <si>
+    <t>MAMY/P PANTS STD L20</t>
+  </si>
+  <si>
+    <t>20021391</t>
+  </si>
+  <si>
+    <t>MAMY/P PANTS STD M20</t>
+  </si>
+  <si>
+    <t>20021394</t>
+  </si>
+  <si>
+    <t>MAMY/P PNT STD XXL18</t>
+  </si>
+  <si>
+    <t>20024306</t>
+  </si>
+  <si>
+    <t>MAMY/P PANT BOY XL24</t>
+  </si>
+  <si>
+    <t>20024303</t>
+  </si>
+  <si>
+    <t>MAMY/P PANT BOY L28</t>
+  </si>
+  <si>
+    <t>20121396</t>
+  </si>
+  <si>
+    <t>MAMY POKO SC M32+2'S</t>
+  </si>
+  <si>
+    <t>20121399</t>
+  </si>
+  <si>
+    <t>MAMY POKO SC L 28'S</t>
+  </si>
+  <si>
+    <t>20045418</t>
+  </si>
+  <si>
+    <t>MAMY/P PANTS STD S38</t>
+  </si>
+  <si>
+    <t>20045419</t>
+  </si>
+  <si>
+    <t>MAMY/P PANTS STD M32</t>
+  </si>
+  <si>
+    <t>20045422</t>
+  </si>
+  <si>
+    <t>MAMY/P PANTS STD L28</t>
+  </si>
+  <si>
+    <t>20064973</t>
+  </si>
+  <si>
+    <t>MAMY/P PANTS STD M48</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20064972</t>
+  </si>
+  <si>
+    <t>MAMY/P PANTS STD L42</t>
+  </si>
+  <si>
+    <t>20125288</t>
+  </si>
+  <si>
+    <t>MAMY/P PANT STD XL38</t>
+  </si>
+  <si>
+    <t>20095876</t>
+  </si>
+  <si>
+    <t>MP PANTS T/G 23S XL</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>20095874</t>
   </si>
   <si>
     <t>MP PANTS T/G 30'S M</t>
   </si>
   <si>
-    <t>20021393</t>
-  </si>
-  <si>
-    <t>MAMY/P PANT STD XL20</t>
-  </si>
-  <si>
-    <t>20021392</t>
-  </si>
-  <si>
-    <t>MAMY/P PANTS STD L20</t>
-  </si>
-  <si>
-    <t>20021391</t>
-  </si>
-  <si>
-    <t>MAMY/P PANTS STD M20</t>
-  </si>
-  <si>
-    <t>20021394</t>
-  </si>
-  <si>
-    <t>MAMY/P PNT STD XXL18</t>
-  </si>
-  <si>
-    <t>20024306</t>
-  </si>
-  <si>
-    <t>MAMY/P PANT BOY XL24</t>
-  </si>
-  <si>
-    <t>20024303</t>
-  </si>
-  <si>
-    <t>MAMY/P PANT BOY L28</t>
-  </si>
-  <si>
-    <t>20121396</t>
-  </si>
-  <si>
-    <t>MAMY POKO SC M32+2'S</t>
-  </si>
-  <si>
-    <t>20121399</t>
-  </si>
-  <si>
-    <t>MAMY POKO SC L 28'S</t>
-  </si>
-  <si>
-    <t>20045418</t>
-  </si>
-  <si>
-    <t>MAMY/P PANTS STD S38</t>
-  </si>
-  <si>
-    <t>20045419</t>
-  </si>
-  <si>
-    <t>MAMY/P PANTS STD M32</t>
-  </si>
-  <si>
-    <t>20045422</t>
-  </si>
-  <si>
-    <t>MAMY/P PANTS STD L28</t>
-  </si>
-  <si>
-    <t>20064973</t>
-  </si>
-  <si>
-    <t>MAMY/P PANTS STD M48</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>20064972</t>
-  </si>
-  <si>
-    <t>MAMY/P PANTS STD L42</t>
-  </si>
-  <si>
-    <t>20125288</t>
-  </si>
-  <si>
-    <t>MAMY/P PANT STD XL38</t>
-  </si>
-  <si>
-    <t>20095876</t>
-  </si>
-  <si>
-    <t>MP PANTS T/G 23S XL</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>20095875</t>
   </si>
   <si>
@@ -211,202 +211,196 @@
     <t>IDM UNDERPADS 10'S</t>
   </si>
   <si>
-    <t>20117812</t>
-  </si>
-  <si>
-    <t>OTO UNDERPAD 10'S</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20135746</t>
+  </si>
+  <si>
+    <t>MAKUKU AIR DIAPR L26</t>
+  </si>
+  <si>
+    <t>RT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20135747</t>
+  </si>
+  <si>
+    <t>MAKUKU AIR DIAP XL24</t>
+  </si>
+  <si>
+    <t>20136706</t>
+  </si>
+  <si>
+    <t>IDM BABY DPRS L28</t>
+  </si>
+  <si>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20097385</t>
+  </si>
+  <si>
+    <t>HAPPY NAPPY PANT 32M</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>RT,(E-3B)</t>
   </si>
   <si>
+    <t>20097386</t>
+  </si>
+  <si>
+    <t>HAPPY NAPPY PANT 28L</t>
+  </si>
+  <si>
+    <t>20132849</t>
+  </si>
+  <si>
+    <t>HAPPY NAPY PANT 24XL</t>
+  </si>
+  <si>
+    <t>20103709</t>
+  </si>
+  <si>
+    <t>SWTY SL.PANT 18S-XXL</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>20092521</t>
+  </si>
+  <si>
+    <t>SWEETY SLV PANT 28 L</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20083937</t>
+  </si>
+  <si>
+    <t>SWEETY SLV PANT 24XL</t>
+  </si>
+  <si>
+    <t>RT,(E-4B)</t>
+  </si>
+  <si>
+    <t>20126742</t>
+  </si>
+  <si>
+    <t>SWEETY SLVR NB-S 40</t>
+  </si>
+  <si>
+    <t>20112586</t>
+  </si>
+  <si>
+    <t>SWTY SLV PANT S 38'S</t>
+  </si>
+  <si>
+    <t>20092520</t>
+  </si>
+  <si>
+    <t>SWEETY SLV PANT 32 M</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>20073638</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE M/32'S</t>
+  </si>
+  <si>
+    <t>20073640</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE XL/24S</t>
+  </si>
+  <si>
+    <t>20083489</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE S 38'S</t>
+  </si>
+  <si>
+    <t>20073639</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE L/28'S</t>
+  </si>
+  <si>
+    <t>20137024</t>
+  </si>
+  <si>
+    <t>SWEETY X-PRT M-44</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20123072</t>
+  </si>
+  <si>
+    <t>SWEETY BRNZE XXL/20S</t>
+  </si>
+  <si>
+    <t>20137023</t>
+  </si>
+  <si>
+    <t>SWEETY X-PERT L-38</t>
+  </si>
+  <si>
+    <t>20113354</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE 44S NB</t>
+  </si>
+  <si>
+    <t>20108881</t>
+  </si>
+  <si>
+    <t>GENKI MOKO2 32+2S M</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20098000</t>
+  </si>
+  <si>
+    <t>GENKI MOKO2 28+2S L</t>
+  </si>
+  <si>
+    <t>20139956</t>
+  </si>
+  <si>
+    <t>GENKI MOKO2 38S NB-S</t>
+  </si>
+  <si>
+    <t>20098001</t>
+  </si>
+  <si>
+    <t>GENKI MOKO2 26+2S XL</t>
+  </si>
+  <si>
     <t>20136707</t>
   </si>
   <si>
     <t>IDM DPRS PANTS M32</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>RT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20136706</t>
-  </si>
-  <si>
-    <t>IDM BABY DPRS L28</t>
-  </si>
-  <si>
-    <t>20135746</t>
-  </si>
-  <si>
-    <t>MAKUKU AIR DIAPR L26</t>
-  </si>
-  <si>
-    <t>RT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20135747</t>
-  </si>
-  <si>
-    <t>MAKUKU AIR DIAP XL24</t>
-  </si>
-  <si>
-    <t>20097385</t>
-  </si>
-  <si>
-    <t>HAPPY NAPPY PANT 32M</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>20097386</t>
-  </si>
-  <si>
-    <t>HAPPY NAPPY PANT 28L</t>
-  </si>
-  <si>
-    <t>20132849</t>
-  </si>
-  <si>
-    <t>HAPPY NAPY PANT 24XL</t>
-  </si>
-  <si>
-    <t>20103709</t>
-  </si>
-  <si>
-    <t>SWTY SL.PANT 18S-XXL</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>20092521</t>
-  </si>
-  <si>
-    <t>SWEETY SLV PANT 28 L</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20083937</t>
-  </si>
-  <si>
-    <t>SWEETY SLV PANT 24XL</t>
-  </si>
-  <si>
-    <t>RT,(E-4B)</t>
-  </si>
-  <si>
-    <t>20126742</t>
-  </si>
-  <si>
-    <t>SWEETY SLVR NB-S 40</t>
-  </si>
-  <si>
-    <t>20112586</t>
-  </si>
-  <si>
-    <t>SWTY SLV PANT S 38'S</t>
-  </si>
-  <si>
-    <t>20123072</t>
-  </si>
-  <si>
-    <t>SWEETY BRNZE XXL/20S</t>
-  </si>
-  <si>
-    <t>20092520</t>
-  </si>
-  <si>
-    <t>SWEETY SLV PANT 32 M</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>20073638</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE M/32'S</t>
-  </si>
-  <si>
-    <t>20073640</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE XL/24S</t>
-  </si>
-  <si>
-    <t>20083489</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE S 38'S</t>
-  </si>
-  <si>
-    <t>20073639</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE L/28'S</t>
-  </si>
-  <si>
-    <t>20137024</t>
-  </si>
-  <si>
-    <t>SWEETY X-PRT M-44</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20137023</t>
-  </si>
-  <si>
-    <t>SWEETY X-PERT L-38</t>
-  </si>
-  <si>
-    <t>20113354</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE 44S NB</t>
-  </si>
-  <si>
-    <t>20108881</t>
-  </si>
-  <si>
-    <t>GENKI MOKO2 32+2S M</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20098000</t>
-  </si>
-  <si>
-    <t>GENKI MOKO2 28+2S L</t>
-  </si>
-  <si>
-    <t>20139956</t>
-  </si>
-  <si>
-    <t>GENKI MOKO2 38S NB-S</t>
-  </si>
-  <si>
-    <t>20098001</t>
-  </si>
-  <si>
-    <t>GENKI MOKO2 26+2S XL</t>
+    <t>14</t>
   </si>
   <si>
     <t>20130078</t>
   </si>
   <si>
     <t>BABY HP PNKFONG L-28</t>
-  </si>
-  <si>
-    <t>14</t>
   </si>
   <si>
     <t>20130077</t>
@@ -886,7 +880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F66"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1108,10 +1102,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -1131,7 +1125,7 @@
         <v>12</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
@@ -1151,7 +1145,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -1171,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1188,10 +1182,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>9</v>
@@ -1211,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -1231,7 +1225,7 @@
         <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -1251,7 +1245,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -1268,13 +1262,13 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,7 +1285,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>19</v>
@@ -1311,7 +1305,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>19</v>
@@ -1328,10 +1322,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
@@ -1339,19 +1333,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>19</v>
@@ -1368,10 +1362,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>19</v>
@@ -1388,30 +1382,30 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>9</v>
@@ -1428,10 +1422,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>9</v>
@@ -1448,10 +1442,10 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>19</v>
@@ -1459,62 +1453,62 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1528,53 +1522,53 @@
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1588,93 +1582,93 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,73 +1682,73 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1768,13 +1762,13 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1788,73 +1782,73 @@
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1868,53 +1862,53 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,13 +1922,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1948,53 +1942,53 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2008,33 +2002,33 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2048,33 +2042,33 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2088,13 +2082,13 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,33 +2102,33 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2148,53 +2142,53 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2208,33 +2202,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/DIA03S.xlsx
+++ b/DIA03S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="161">
   <si>
     <t/>
   </si>
@@ -214,184 +214,190 @@
     <t>8</t>
   </si>
   <si>
+    <t>20136707</t>
+  </si>
+  <si>
+    <t>IDM DPRS PANTS M32</t>
+  </si>
+  <si>
+    <t>RT,(E-1B)</t>
+  </si>
+  <si>
+    <t>20136706</t>
+  </si>
+  <si>
+    <t>IDM BABY DPRS L28</t>
+  </si>
+  <si>
+    <t>20135747</t>
+  </si>
+  <si>
+    <t>MAKUKU AIR DIAP XL24</t>
+  </si>
+  <si>
+    <t>RT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20123072</t>
+  </si>
+  <si>
+    <t>SWEETY BRNZE XXL/20S</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20103709</t>
+  </si>
+  <si>
+    <t>SWTY SL.PANT 18S-XXL</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>20097386</t>
+  </si>
+  <si>
+    <t>HAPPY NAPPY PANT 28L</t>
+  </si>
+  <si>
+    <t>20132849</t>
+  </si>
+  <si>
+    <t>HAPPY NAPY PANT 24XL</t>
+  </si>
+  <si>
+    <t>20073639</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE L/28'S</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20073640</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE XL/24S</t>
+  </si>
+  <si>
+    <t>20092520</t>
+  </si>
+  <si>
+    <t>SWEETY SLV PANT 32 M</t>
+  </si>
+  <si>
+    <t>20083937</t>
+  </si>
+  <si>
+    <t>SWEETY SLV PANT 24XL</t>
+  </si>
+  <si>
+    <t>RT,(E-4B)</t>
+  </si>
+  <si>
+    <t>20097385</t>
+  </si>
+  <si>
+    <t>HAPPY NAPPY PANT 32M</t>
+  </si>
+  <si>
+    <t>20083489</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE S 38'S</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>20073638</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE M/32'S</t>
+  </si>
+  <si>
+    <t>20126742</t>
+  </si>
+  <si>
+    <t>SWEETY SLVR NB-S 40</t>
+  </si>
+  <si>
+    <t>20112586</t>
+  </si>
+  <si>
+    <t>SWTY SLV PANT S 38'S</t>
+  </si>
+  <si>
+    <t>20092521</t>
+  </si>
+  <si>
+    <t>SWEETY SLV PANT 28 L</t>
+  </si>
+  <si>
+    <t>20113354</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE 44S NB</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20137024</t>
+  </si>
+  <si>
+    <t>SWEETY X-PRT M-44</t>
+  </si>
+  <si>
+    <t>20140872</t>
+  </si>
+  <si>
+    <t>SWEETY X-PRT XL-32S</t>
+  </si>
+  <si>
+    <t>20137023</t>
+  </si>
+  <si>
+    <t>SWEETY X-PERT L-38</t>
+  </si>
+  <si>
+    <t>20108881</t>
+  </si>
+  <si>
+    <t>GENKI MOKO2 32+2S M</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20098000</t>
+  </si>
+  <si>
+    <t>GENKI MOKO2 28+2S L</t>
+  </si>
+  <si>
+    <t>20139956</t>
+  </si>
+  <si>
+    <t>GENKI MOKO2 38S NB-S</t>
+  </si>
+  <si>
+    <t>20098001</t>
+  </si>
+  <si>
+    <t>GENKI MOKO2 26+2S XL</t>
+  </si>
+  <si>
     <t>20135746</t>
   </si>
   <si>
     <t>MAKUKU AIR DIAPR L26</t>
-  </si>
-  <si>
-    <t>RT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20135747</t>
-  </si>
-  <si>
-    <t>MAKUKU AIR DIAP XL24</t>
-  </si>
-  <si>
-    <t>20136706</t>
-  </si>
-  <si>
-    <t>IDM BABY DPRS L28</t>
-  </si>
-  <si>
-    <t>RT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20097385</t>
-  </si>
-  <si>
-    <t>HAPPY NAPPY PANT 32M</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20097386</t>
-  </si>
-  <si>
-    <t>HAPPY NAPPY PANT 28L</t>
-  </si>
-  <si>
-    <t>20132849</t>
-  </si>
-  <si>
-    <t>HAPPY NAPY PANT 24XL</t>
-  </si>
-  <si>
-    <t>20103709</t>
-  </si>
-  <si>
-    <t>SWTY SL.PANT 18S-XXL</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>20092521</t>
-  </si>
-  <si>
-    <t>SWEETY SLV PANT 28 L</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20083937</t>
-  </si>
-  <si>
-    <t>SWEETY SLV PANT 24XL</t>
-  </si>
-  <si>
-    <t>RT,(E-4B)</t>
-  </si>
-  <si>
-    <t>20126742</t>
-  </si>
-  <si>
-    <t>SWEETY SLVR NB-S 40</t>
-  </si>
-  <si>
-    <t>20112586</t>
-  </si>
-  <si>
-    <t>SWTY SLV PANT S 38'S</t>
-  </si>
-  <si>
-    <t>20092520</t>
-  </si>
-  <si>
-    <t>SWEETY SLV PANT 32 M</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>20073638</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE M/32'S</t>
-  </si>
-  <si>
-    <t>20073640</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE XL/24S</t>
-  </si>
-  <si>
-    <t>20083489</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE S 38'S</t>
-  </si>
-  <si>
-    <t>20073639</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE L/28'S</t>
-  </si>
-  <si>
-    <t>20137024</t>
-  </si>
-  <si>
-    <t>SWEETY X-PRT M-44</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20123072</t>
-  </si>
-  <si>
-    <t>SWEETY BRNZE XXL/20S</t>
-  </si>
-  <si>
-    <t>20137023</t>
-  </si>
-  <si>
-    <t>SWEETY X-PERT L-38</t>
-  </si>
-  <si>
-    <t>20113354</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE 44S NB</t>
-  </si>
-  <si>
-    <t>20108881</t>
-  </si>
-  <si>
-    <t>GENKI MOKO2 32+2S M</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20098000</t>
-  </si>
-  <si>
-    <t>GENKI MOKO2 28+2S L</t>
-  </si>
-  <si>
-    <t>20139956</t>
-  </si>
-  <si>
-    <t>GENKI MOKO2 38S NB-S</t>
-  </si>
-  <si>
-    <t>20098001</t>
-  </si>
-  <si>
-    <t>GENKI MOKO2 26+2S XL</t>
-  </si>
-  <si>
-    <t>20136707</t>
-  </si>
-  <si>
-    <t>IDM DPRS PANTS M32</t>
   </si>
   <si>
     <t>14</t>
@@ -880,7 +886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1548,15 +1554,15 @@
         <v>8</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
@@ -1568,15 +1574,15 @@
         <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
@@ -1588,7 +1594,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1608,7 +1614,7 @@
         <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1628,15 +1634,15 @@
         <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
@@ -1648,15 +1654,15 @@
         <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
@@ -1668,7 +1674,7 @@
         <v>15</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1682,10 +1688,10 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>78</v>
@@ -1693,22 +1699,22 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1722,13 +1728,13 @@
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1742,13 +1748,13 @@
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1762,13 +1768,13 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1782,10 +1788,10 @@
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>78</v>
@@ -1793,22 +1799,22 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1822,10 +1828,10 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>78</v>
@@ -1842,13 +1848,13 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1862,10 +1868,10 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>78</v>
@@ -1873,19 +1879,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>78</v>
@@ -1902,13 +1908,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1922,13 +1928,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1942,30 +1948,30 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>74</v>
@@ -1982,13 +1988,13 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2002,33 +2008,33 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2042,33 +2048,33 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2082,13 +2088,13 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2102,33 +2108,33 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2142,53 +2148,53 @@
         <v>3</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2202,13 +2208,33 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>74</v>
+      <c r="F67" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/DIA03S.xlsx
+++ b/DIA03S.xlsx
@@ -73,90 +73,90 @@
     <t>PT,(E-3B)</t>
   </si>
   <si>
+    <t>20024306</t>
+  </si>
+  <si>
+    <t>MAMY/P PANT BOY XL24</t>
+  </si>
+  <si>
+    <t>20024303</t>
+  </si>
+  <si>
+    <t>MAMY/P PANT BOY L28</t>
+  </si>
+  <si>
+    <t>20121396</t>
+  </si>
+  <si>
+    <t>MAMY POKO SC M32+2'S</t>
+  </si>
+  <si>
+    <t>20121399</t>
+  </si>
+  <si>
+    <t>MAMY POKO SC L 28'S</t>
+  </si>
+  <si>
+    <t>20021393</t>
+  </si>
+  <si>
+    <t>MAMY/P PANT STD XL20</t>
+  </si>
+  <si>
+    <t>20021392</t>
+  </si>
+  <si>
+    <t>MAMY/P PANTS STD L20</t>
+  </si>
+  <si>
+    <t>20021391</t>
+  </si>
+  <si>
+    <t>MAMY/P PANTS STD M20</t>
+  </si>
+  <si>
+    <t>20021394</t>
+  </si>
+  <si>
+    <t>MAMY/P PNT STD XXL18</t>
+  </si>
+  <si>
+    <t>20045421</t>
+  </si>
+  <si>
+    <t>MAMY/P PNT/STD XXL24</t>
+  </si>
+  <si>
+    <t>20106150</t>
+  </si>
+  <si>
+    <t>MAMY POKO 44'S NB</t>
+  </si>
+  <si>
+    <t>20041257</t>
+  </si>
+  <si>
+    <t>MAMY/P DIAPERS S-24S</t>
+  </si>
+  <si>
+    <t>20045418</t>
+  </si>
+  <si>
+    <t>MAMY/P PANTS STD S38</t>
+  </si>
+  <si>
+    <t>20045419</t>
+  </si>
+  <si>
+    <t>MAMY/P PANTS STD M32</t>
+  </si>
+  <si>
     <t>20045423</t>
   </si>
   <si>
     <t>MAMY/P PANT STD XL26</t>
   </si>
   <si>
-    <t>20045421</t>
-  </si>
-  <si>
-    <t>MAMY/P PNT/STD XXL24</t>
-  </si>
-  <si>
-    <t>20106150</t>
-  </si>
-  <si>
-    <t>MAMY POKO 44'S NB</t>
-  </si>
-  <si>
-    <t>20041257</t>
-  </si>
-  <si>
-    <t>MAMY/P DIAPERS S-24S</t>
-  </si>
-  <si>
-    <t>20021393</t>
-  </si>
-  <si>
-    <t>MAMY/P PANT STD XL20</t>
-  </si>
-  <si>
-    <t>20021392</t>
-  </si>
-  <si>
-    <t>MAMY/P PANTS STD L20</t>
-  </si>
-  <si>
-    <t>20021391</t>
-  </si>
-  <si>
-    <t>MAMY/P PANTS STD M20</t>
-  </si>
-  <si>
-    <t>20021394</t>
-  </si>
-  <si>
-    <t>MAMY/P PNT STD XXL18</t>
-  </si>
-  <si>
-    <t>20024306</t>
-  </si>
-  <si>
-    <t>MAMY/P PANT BOY XL24</t>
-  </si>
-  <si>
-    <t>20024303</t>
-  </si>
-  <si>
-    <t>MAMY/P PANT BOY L28</t>
-  </si>
-  <si>
-    <t>20121396</t>
-  </si>
-  <si>
-    <t>MAMY POKO SC M32+2'S</t>
-  </si>
-  <si>
-    <t>20121399</t>
-  </si>
-  <si>
-    <t>MAMY POKO SC L 28'S</t>
-  </si>
-  <si>
-    <t>20045418</t>
-  </si>
-  <si>
-    <t>MAMY/P PANTS STD S38</t>
-  </si>
-  <si>
-    <t>20045419</t>
-  </si>
-  <si>
-    <t>MAMY/P PANTS STD M32</t>
-  </si>
-  <si>
     <t>20045422</t>
   </si>
   <si>
@@ -229,228 +229,228 @@
     <t>IDM BABY DPRS L28</t>
   </si>
   <si>
+    <t>20123072</t>
+  </si>
+  <si>
+    <t>SWEETY BRNZE XXL/20S</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>20103709</t>
+  </si>
+  <si>
+    <t>SWTY SL.PANT 18S-XXL</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t>20097386</t>
+  </si>
+  <si>
+    <t>HAPPY NAPPY PANT 28L</t>
+  </si>
+  <si>
+    <t>20132849</t>
+  </si>
+  <si>
+    <t>HAPPY NAPY PANT 24XL</t>
+  </si>
+  <si>
+    <t>20073639</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE L/28'S</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20073640</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE XL/24S</t>
+  </si>
+  <si>
+    <t>20092520</t>
+  </si>
+  <si>
+    <t>SWEETY SLV PANT 32 M</t>
+  </si>
+  <si>
+    <t>20083937</t>
+  </si>
+  <si>
+    <t>SWEETY SLV PANT 24XL</t>
+  </si>
+  <si>
+    <t>RT,(E-4B)</t>
+  </si>
+  <si>
+    <t>20097385</t>
+  </si>
+  <si>
+    <t>HAPPY NAPPY PANT 32M</t>
+  </si>
+  <si>
+    <t>20083489</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE S 38'S</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>20073638</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE M/32'S</t>
+  </si>
+  <si>
+    <t>20126742</t>
+  </si>
+  <si>
+    <t>SWEETY SLVR NB-S 40</t>
+  </si>
+  <si>
+    <t>20112586</t>
+  </si>
+  <si>
+    <t>SWTY SLV PANT S 38'S</t>
+  </si>
+  <si>
+    <t>20092521</t>
+  </si>
+  <si>
+    <t>SWEETY SLV PANT 28 L</t>
+  </si>
+  <si>
+    <t>20113354</t>
+  </si>
+  <si>
+    <t>SWEETY BRONZE 44S NB</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20137024</t>
+  </si>
+  <si>
+    <t>SWEETY X-PRT M-44</t>
+  </si>
+  <si>
+    <t>20137023</t>
+  </si>
+  <si>
+    <t>SWEETY X-PERT L-38</t>
+  </si>
+  <si>
+    <t>20140872</t>
+  </si>
+  <si>
+    <t>SWEETY X-PRT XL-32S</t>
+  </si>
+  <si>
+    <t>20108881</t>
+  </si>
+  <si>
+    <t>GENKI MOKO2 32+2S M</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>20098000</t>
+  </si>
+  <si>
+    <t>GENKI MOKO2 28+2S L</t>
+  </si>
+  <si>
+    <t>20139956</t>
+  </si>
+  <si>
+    <t>GENKI MOKO2 38S NB-S</t>
+  </si>
+  <si>
+    <t>20098001</t>
+  </si>
+  <si>
+    <t>GENKI MOKO2 26+2S XL</t>
+  </si>
+  <si>
+    <t>20130078</t>
+  </si>
+  <si>
+    <t>BABY HP PNKFONG L-28</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20130077</t>
+  </si>
+  <si>
+    <t>BABY HP PNKFONG M-32</t>
+  </si>
+  <si>
+    <t>20077483</t>
+  </si>
+  <si>
+    <t>MERRIES PANT GS26 XL</t>
+  </si>
+  <si>
+    <t>20070711</t>
+  </si>
+  <si>
+    <t>MERRIES PANT GS32 M</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20103165</t>
+  </si>
+  <si>
+    <t>MERRIES PANT GS40 S</t>
+  </si>
+  <si>
+    <t>20112938</t>
+  </si>
+  <si>
+    <t>MERRIES PANT GS18XXL</t>
+  </si>
+  <si>
+    <t>20070712</t>
+  </si>
+  <si>
+    <t>MERRIES PANT GS28 L</t>
+  </si>
+  <si>
     <t>20135747</t>
   </si>
   <si>
     <t>MAKUKU AIR DIAP XL24</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>RT,(E-2B)</t>
   </si>
   <si>
-    <t>20123072</t>
-  </si>
-  <si>
-    <t>SWEETY BRNZE XXL/20S</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>20103709</t>
-  </si>
-  <si>
-    <t>SWTY SL.PANT 18S-XXL</t>
-  </si>
-  <si>
-    <t>RT</t>
-  </si>
-  <si>
-    <t>20097386</t>
-  </si>
-  <si>
-    <t>HAPPY NAPPY PANT 28L</t>
-  </si>
-  <si>
-    <t>20132849</t>
-  </si>
-  <si>
-    <t>HAPPY NAPY PANT 24XL</t>
-  </si>
-  <si>
-    <t>20073639</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE L/28'S</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20073640</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE XL/24S</t>
-  </si>
-  <si>
-    <t>20092520</t>
-  </si>
-  <si>
-    <t>SWEETY SLV PANT 32 M</t>
-  </si>
-  <si>
-    <t>20083937</t>
-  </si>
-  <si>
-    <t>SWEETY SLV PANT 24XL</t>
-  </si>
-  <si>
-    <t>RT,(E-4B)</t>
-  </si>
-  <si>
-    <t>20097385</t>
-  </si>
-  <si>
-    <t>HAPPY NAPPY PANT 32M</t>
-  </si>
-  <si>
-    <t>20083489</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE S 38'S</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>20073638</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE M/32'S</t>
-  </si>
-  <si>
-    <t>20126742</t>
-  </si>
-  <si>
-    <t>SWEETY SLVR NB-S 40</t>
-  </si>
-  <si>
-    <t>20112586</t>
-  </si>
-  <si>
-    <t>SWTY SLV PANT S 38'S</t>
-  </si>
-  <si>
-    <t>20092521</t>
-  </si>
-  <si>
-    <t>SWEETY SLV PANT 28 L</t>
-  </si>
-  <si>
-    <t>20113354</t>
-  </si>
-  <si>
-    <t>SWEETY BRONZE 44S NB</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20137024</t>
-  </si>
-  <si>
-    <t>SWEETY X-PRT M-44</t>
-  </si>
-  <si>
-    <t>20140872</t>
-  </si>
-  <si>
-    <t>SWEETY X-PRT XL-32S</t>
-  </si>
-  <si>
-    <t>20137023</t>
-  </si>
-  <si>
-    <t>SWEETY X-PERT L-38</t>
-  </si>
-  <si>
-    <t>20108881</t>
-  </si>
-  <si>
-    <t>GENKI MOKO2 32+2S M</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>20098000</t>
-  </si>
-  <si>
-    <t>GENKI MOKO2 28+2S L</t>
-  </si>
-  <si>
-    <t>20139956</t>
-  </si>
-  <si>
-    <t>GENKI MOKO2 38S NB-S</t>
-  </si>
-  <si>
-    <t>20098001</t>
-  </si>
-  <si>
-    <t>GENKI MOKO2 26+2S XL</t>
-  </si>
-  <si>
     <t>20135746</t>
   </si>
   <si>
     <t>MAKUKU AIR DIAPR L26</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>20130078</t>
-  </si>
-  <si>
-    <t>BABY HP PNKFONG L-28</t>
-  </si>
-  <si>
-    <t>20130077</t>
-  </si>
-  <si>
-    <t>BABY HP PNKFONG M-32</t>
-  </si>
-  <si>
-    <t>20070711</t>
-  </si>
-  <si>
-    <t>MERRIES PANT GS32 M</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20070712</t>
-  </si>
-  <si>
-    <t>MERRIES PANT GS28 L</t>
-  </si>
-  <si>
-    <t>20077483</t>
-  </si>
-  <si>
-    <t>MERRIES PANT GS26 XL</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>20103165</t>
-  </si>
-  <si>
-    <t>MERRIES PANT GS40 S</t>
-  </si>
-  <si>
-    <t>20112938</t>
-  </si>
-  <si>
-    <t>MERRIES PANT GS18XXL</t>
-  </si>
-  <si>
     <t>20072919</t>
   </si>
   <si>
@@ -460,34 +460,34 @@
     <t>17</t>
   </si>
   <si>
+    <t>20134306</t>
+  </si>
+  <si>
+    <t>BABY HP PNTS 24S XXL</t>
+  </si>
+  <si>
+    <t>RT,(E-0.5B)</t>
+  </si>
+  <si>
+    <t>20134007</t>
+  </si>
+  <si>
+    <t>BABY HAPY PANT38+2/S</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>20072925</t>
+  </si>
+  <si>
+    <t>BABY HAPY PANTS 28/L</t>
+  </si>
+  <si>
     <t>20072924</t>
   </si>
   <si>
     <t>BABY HAPY PANTS26/XL</t>
-  </si>
-  <si>
-    <t>20134306</t>
-  </si>
-  <si>
-    <t>BABY HP PNTS 24S XXL</t>
-  </si>
-  <si>
-    <t>RT,(E-0.5B)</t>
-  </si>
-  <si>
-    <t>20134007</t>
-  </si>
-  <si>
-    <t>BABY HAPY PANT38+2/S</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>20072925</t>
-  </si>
-  <si>
-    <t>BABY HAPY PANTS 28/L</t>
   </si>
   <si>
     <t>20072923</t>
@@ -1054,7 +1054,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1194,7 +1194,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1248,13 +1248,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>19</v>
@@ -1291,10 +1291,10 @@
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,7 +1311,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>19</v>
@@ -1508,30 +1508,30 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>78</v>
@@ -1548,50 +1548,50 @@
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>69</v>
@@ -1608,53 +1608,53 @@
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1668,33 +1668,33 @@
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1708,90 +1708,90 @@
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>78</v>
@@ -1808,73 +1808,73 @@
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1888,73 +1888,73 @@
         <v>3</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="E53" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1968,53 +1968,53 @@
         <v>3</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2028,50 +2028,50 @@
         <v>3</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>78</v>
@@ -2079,22 +2079,22 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2108,13 +2108,13 @@
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>81</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2154,44 +2154,44 @@
         <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>153</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>69</v>
@@ -2208,10 +2208,10 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>69</v>
@@ -2228,10 +2228,10 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>69</v>

--- a/DIA03S.xlsx
+++ b/DIA03S.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="163">
   <si>
     <t/>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>MAMY/P DIAPERS S-24S</t>
+  </si>
+  <si>
+    <t>20141251</t>
+  </si>
+  <si>
+    <t>M.POKO PANT XXXL 22S</t>
   </si>
   <si>
     <t>20045418</t>
@@ -886,7 +892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1248,13 +1254,13 @@
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>19</v>
@@ -1291,10 +1297,10 @@
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,10 +1317,10 @@
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1328,10 +1334,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>19</v>
@@ -1339,19 +1345,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>19</v>
@@ -1368,10 +1374,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>19</v>
@@ -1388,30 +1394,30 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>9</v>
@@ -1428,10 +1434,10 @@
         <v>3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>9</v>
@@ -1448,53 +1454,53 @@
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="E29" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>69</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1508,53 +1514,53 @@
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1568,13 +1574,13 @@
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1588,33 +1594,33 @@
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1628,13 +1634,13 @@
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1648,33 +1654,33 @@
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,33 +1694,33 @@
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1728,13 +1734,13 @@
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1748,13 +1754,13 @@
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1768,13 +1774,13 @@
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1788,33 +1794,33 @@
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1828,13 +1834,13 @@
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1848,13 +1854,13 @@
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1868,33 +1874,33 @@
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1908,13 +1914,13 @@
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1928,13 +1934,13 @@
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -1948,33 +1954,33 @@
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1988,13 +1994,13 @@
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2008,33 +2014,33 @@
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2048,13 +2054,13 @@
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2068,13 +2074,13 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2088,33 +2094,33 @@
         <v>3</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>143</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="E61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2128,73 +2134,73 @@
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>151</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2208,13 +2214,13 @@
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2228,13 +2234,33 @@
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E67" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>69</v>
+      <c r="F68" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
